--- a/data/combined_responses.xlsx
+++ b/data/combined_responses.xlsx
@@ -1965,7 +1965,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,13 +1975,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2039,7 +2033,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2375,7 +2369,7 @@
     <col min="17" max="17" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2677,7 +2671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2726,7 +2720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -2877,7 +2871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -2928,7 +2922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -3028,7 +3022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -3079,7 +3073,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="84.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="90">
       <c r="A17" s="3" t="s">
         <v>140</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="84.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90">
       <c r="A18" s="3" t="s">
         <v>140</v>
       </c>
@@ -3273,7 +3267,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -3324,7 +3318,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>140</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>194</v>
       </c>
@@ -3422,7 +3416,7 @@
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>194</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>194</v>
       </c>
@@ -3524,7 +3518,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>225</v>
       </c>
@@ -3573,7 +3567,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>225</v>
       </c>
@@ -3622,7 +3616,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>225</v>
       </c>
@@ -3673,7 +3667,7 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>225</v>
       </c>
@@ -3722,7 +3716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>262</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>262</v>
       </c>
@@ -3818,7 +3812,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>262</v>
       </c>
@@ -3869,7 +3863,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
         <v>290</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
         <v>290</v>
       </c>
@@ -3967,7 +3961,7 @@
         <v>308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
         <v>290</v>
       </c>
@@ -4016,7 +4010,7 @@
         <v>317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="129.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="138">
       <c r="A34" s="3" t="s">
         <v>290</v>
       </c>
@@ -4065,7 +4059,7 @@
       </c>
       <c r="Q34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="96">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="102">
       <c r="A35" s="3" t="s">
         <v>290</v>
       </c>
@@ -4114,7 +4108,7 @@
         <v>334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="3" t="s">
         <v>290</v>
       </c>
@@ -4165,7 +4159,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="96">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="102">
       <c r="A37" s="3" t="s">
         <v>345</v>
       </c>
@@ -4216,7 +4210,7 @@
         <v>355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3" t="s">
         <v>345</v>
       </c>
@@ -4267,7 +4261,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="107.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="114">
       <c r="A39" s="3" t="s">
         <v>345</v>
       </c>
